--- a/data/trans_orig/P36BPD13_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>467801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>447505</v>
+        <v>450330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>483202</v>
+        <v>484254</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8540792004021248</v>
+        <v>0.854079200402125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.817025151853622</v>
+        <v>0.8221833342248869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8821988535740904</v>
+        <v>0.8841185864419217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>614</v>
@@ -762,19 +762,19 @@
         <v>436674</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>424703</v>
+        <v>425071</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>446928</v>
+        <v>446995</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.90209619238439</v>
+        <v>0.9020961923843899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8773650956830261</v>
+        <v>0.878126566500337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9232797780082048</v>
+        <v>0.9234182332960993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1087</v>
@@ -783,19 +783,19 @@
         <v>904475</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>880848</v>
+        <v>881031</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>923298</v>
+        <v>924430</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8766064157609594</v>
+        <v>0.8766064157609595</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8537076450969775</v>
+        <v>0.8538852638159602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8948498596202938</v>
+        <v>0.895947140343717</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>79924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64523</v>
+        <v>63471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100220</v>
+        <v>97395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.145920799597875</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1178011464259096</v>
+        <v>0.1158814135580786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.182974848146377</v>
+        <v>0.1778166657751131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -833,19 +833,19 @@
         <v>47392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37138</v>
+        <v>37071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59363</v>
+        <v>58995</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09790380761561011</v>
+        <v>0.09790380761561014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0767202219917949</v>
+        <v>0.0765817667039006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1226349043169736</v>
+        <v>0.121873433499663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -854,19 +854,19 @@
         <v>127316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108493</v>
+        <v>107361</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150943</v>
+        <v>150760</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1233935842390405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1051501403797062</v>
+        <v>0.1040528596562829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1462923549030224</v>
+        <v>0.1461147361840396</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>400405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>380185</v>
+        <v>380046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>416764</v>
+        <v>417614</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8366339700268363</v>
+        <v>0.8366339700268361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.794386216092839</v>
+        <v>0.7940947060623709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8708157142826762</v>
+        <v>0.8725932905752291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>517</v>
@@ -979,19 +979,19 @@
         <v>368047</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>354791</v>
+        <v>354218</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>377780</v>
+        <v>379177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8793779501198469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8477058741624797</v>
+        <v>0.8463370729583742</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9026341655737007</v>
+        <v>0.905972314199043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>923</v>
@@ -1000,19 +1000,19 @@
         <v>768452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>747005</v>
+        <v>747551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>788644</v>
+        <v>789880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8565751703502198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8326692693907003</v>
+        <v>0.8332778938136982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8790834696797774</v>
+        <v>0.8804606945744011</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>78185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61826</v>
+        <v>60976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>98405</v>
+        <v>98544</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1633660299731639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1291842857173238</v>
+        <v>0.1274067094247711</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2056137839071609</v>
+        <v>0.2059052939376292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -1050,19 +1050,19 @@
         <v>50484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40751</v>
+        <v>39354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63740</v>
+        <v>64313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1206220498801532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09736583442629911</v>
+        <v>0.09402768580095705</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.15229412583752</v>
+        <v>0.1536629270416257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>138</v>
@@ -1071,19 +1071,19 @@
         <v>128669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>108477</v>
+        <v>107241</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150116</v>
+        <v>149570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1434248296497803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1209165303202226</v>
+        <v>0.1195393054255988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1673307306092995</v>
+        <v>0.1667221061863018</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>387299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>369204</v>
+        <v>368200</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>406066</v>
+        <v>405588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8288722170275944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7901472360162654</v>
+        <v>0.7879976439228918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8690357591248122</v>
+        <v>0.8680136388727666</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>257</v>
@@ -1196,19 +1196,19 @@
         <v>161778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152018</v>
+        <v>153309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168737</v>
+        <v>168795</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8804356935791929</v>
+        <v>0.8804356935791932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8273201584281371</v>
+        <v>0.834343681417169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9183076990567667</v>
+        <v>0.9186204633888563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>670</v>
@@ -1217,19 +1217,19 @@
         <v>549077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>529762</v>
+        <v>527128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>566833</v>
+        <v>567043</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8434260878241272</v>
+        <v>0.843426087824127</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8137566963484426</v>
+        <v>0.8097100468185517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8707010226955026</v>
+        <v>0.8710236894348689</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>79961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61194</v>
+        <v>61672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98056</v>
+        <v>99060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1711277829724056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1309642408751878</v>
+        <v>0.1319863611272337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2098527639837345</v>
+        <v>0.2120023560771081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -1267,19 +1267,19 @@
         <v>21970</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15011</v>
+        <v>14953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31730</v>
+        <v>30439</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1195643064208069</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08169230094323338</v>
+        <v>0.08137953661114369</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1726798415718628</v>
+        <v>0.165656318582831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -1288,19 +1288,19 @@
         <v>101931</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84175</v>
+        <v>83965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>121246</v>
+        <v>123880</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1565739121758728</v>
+        <v>0.1565739121758729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1292989773044977</v>
+        <v>0.1289763105651314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1862433036515573</v>
+        <v>0.1902899531814486</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>954086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>925560</v>
+        <v>926405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>979216</v>
+        <v>978856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8471368040383794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8218081359352862</v>
+        <v>0.8225584918763409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8694500094587047</v>
+        <v>0.86913024123287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1078</v>
@@ -1413,19 +1413,19 @@
         <v>741568</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>723318</v>
+        <v>722008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>760749</v>
+        <v>757000</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8640969840325642</v>
+        <v>0.8640969840325643</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8428316132974727</v>
+        <v>0.8413049664987461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8864477365571147</v>
+        <v>0.8820784596480237</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2041</v>
@@ -1434,19 +1434,19 @@
         <v>1695654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1664102</v>
+        <v>1657824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1728646</v>
+        <v>1726863</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8544714505751601</v>
+        <v>0.8544714505751599</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8385715285598686</v>
+        <v>0.8354082427797862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.87109643600521</v>
+        <v>0.8701981217531179</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>172162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147032</v>
+        <v>147392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200688</v>
+        <v>199843</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1528631959616206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1305499905412953</v>
+        <v>0.1308697587671299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1781918640647139</v>
+        <v>0.1774415081236591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1484,19 +1484,19 @@
         <v>116632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97451</v>
+        <v>101200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134882</v>
+        <v>136192</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1359030159674357</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1135522634428855</v>
+        <v>0.1179215403519763</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1571683867025275</v>
+        <v>0.158695033501254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>298</v>
@@ -1505,19 +1505,19 @@
         <v>288794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>255802</v>
+        <v>257585</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>320346</v>
+        <v>326624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1455285494248399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.12890356399479</v>
+        <v>0.129801878246882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1614284714401314</v>
+        <v>0.1645917572202139</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>472413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>450006</v>
+        <v>452978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>490665</v>
+        <v>490696</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8373488859017371</v>
+        <v>0.837348885901737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7976331319874451</v>
+        <v>0.8029003588177226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8697012174788598</v>
+        <v>0.8697560452085079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1141</v>
@@ -1630,19 +1630,19 @@
         <v>728761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>712787</v>
+        <v>711162</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>743095</v>
+        <v>742333</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8818799055830256</v>
+        <v>0.8818799055830253</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8625497855477069</v>
+        <v>0.8605836946784946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8992254489313048</v>
+        <v>0.8983042500775912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1604</v>
@@ -1651,19 +1651,19 @@
         <v>1201174</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1172913</v>
+        <v>1174065</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1224980</v>
+        <v>1224971</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8638126628614266</v>
+        <v>0.8638126628614267</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8434893685897015</v>
+        <v>0.8443176206048413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.880932419487174</v>
+        <v>0.8809264078171165</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>91764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73512</v>
+        <v>73481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114171</v>
+        <v>111199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1626511140982632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.13029878252114</v>
+        <v>0.1302439547914923</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2023668680125549</v>
+        <v>0.1970996411822775</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -1701,19 +1701,19 @@
         <v>97611</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83277</v>
+        <v>84039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113585</v>
+        <v>115210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1181200944169745</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1007745510686957</v>
+        <v>0.1016957499224083</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1374502144522937</v>
+        <v>0.1394163053215049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -1722,19 +1722,19 @@
         <v>189375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165569</v>
+        <v>165578</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>217636</v>
+        <v>216484</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1361873371385734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1190675805128259</v>
+        <v>0.1190735921828834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1565106314102983</v>
+        <v>0.1556823793951587</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>214339</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>197905</v>
+        <v>196176</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>227656</v>
+        <v>227081</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9035139372239415</v>
+        <v>0.9035139372239414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8342388037714944</v>
+        <v>0.8269496768221674</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9596493093434069</v>
+        <v>0.9572249053489156</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1015</v>
@@ -1847,19 +1847,19 @@
         <v>729041</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>708410</v>
+        <v>706823</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>746925</v>
+        <v>746385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8687487490103085</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8441640121860504</v>
+        <v>0.8422726719821408</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8900594326907548</v>
+        <v>0.8894165961915851</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1117</v>
@@ -1868,19 +1868,19 @@
         <v>943380</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>914514</v>
+        <v>914942</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>964389</v>
+        <v>966809</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8764105565115431</v>
+        <v>0.8764105565115429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8495938973230208</v>
+        <v>0.8499912114300854</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8959284080791444</v>
+        <v>0.8981765476853971</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>22889</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9572</v>
+        <v>10147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39323</v>
+        <v>41052</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0964860627760586</v>
+        <v>0.09648606277605863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04035069065659293</v>
+        <v>0.04277509465108442</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1657611962285056</v>
+        <v>0.1730503231778326</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -1918,19 +1918,19 @@
         <v>110144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92260</v>
+        <v>92800</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130775</v>
+        <v>132362</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1312512509896914</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1099405673092452</v>
+        <v>0.110583403808415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1558359878139496</v>
+        <v>0.1577273280178592</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>146</v>
@@ -1939,19 +1939,19 @@
         <v>133033</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112024</v>
+        <v>109604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161899</v>
+        <v>161471</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.123589443488457</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1040715919208556</v>
+        <v>0.101823452314603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1504061026769791</v>
+        <v>0.1500087885699147</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>2896343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2844036</v>
+        <v>2846712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2940162</v>
+        <v>2942688</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8465796221568082</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8312907623182028</v>
+        <v>0.8320728699326028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8593876754179988</v>
+        <v>0.8601258689761085</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4622</v>
@@ -2064,19 +2064,19 @@
         <v>3165868</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3130920</v>
+        <v>3132245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3202338</v>
+        <v>3202493</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8769472805847193</v>
+        <v>0.8769472805847194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8672664777372581</v>
+        <v>0.8676335795037795</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8870494111407407</v>
+        <v>0.8870922177494643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7442</v>
@@ -2085,19 +2085,19 @@
         <v>6062211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5996013</v>
+        <v>5996570</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6121621</v>
+        <v>6117539</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8621713125051741</v>
+        <v>0.862171312505174</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8527565236703462</v>
+        <v>0.8528358282343794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8706205894516369</v>
+        <v>0.8700401151606147</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>524886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>481067</v>
+        <v>478541</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>577193</v>
+        <v>574517</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1534203778431917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1406123245820011</v>
+        <v>0.1398741310238915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.168709237681797</v>
+        <v>0.1679271300673973</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>588</v>
@@ -2135,19 +2135,19 @@
         <v>444233</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>407763</v>
+        <v>407608</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>479181</v>
+        <v>477856</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1230527194152805</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1129505888592593</v>
+        <v>0.1129077822505358</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1327335222627418</v>
+        <v>0.1323664204962212</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1045</v>
@@ -2156,19 +2156,19 @@
         <v>969119</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>909709</v>
+        <v>913791</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1035317</v>
+        <v>1034760</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1378286874948259</v>
+        <v>0.1378286874948258</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1293794105483631</v>
+        <v>0.1299598848393851</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1472434763296537</v>
+        <v>0.1471641717656202</v>
       </c>
     </row>
     <row r="24">
